--- a/biology/Botanique/Geranium_bohemicum/Geranium_bohemicum.xlsx
+++ b/biology/Botanique/Geranium_bohemicum/Geranium_bohemicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium bohemicum
 Le Géranium de Bohème (Geranium bohemicum L ou encore Geranium caelureum Moench), geranio di Boemia en italien, Böhmischer Storchschnabel en allemand et Bohemian Crane's-bill en anglais est une plante de la famille des Géraniacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée de 20 à 30 cm de haut à feuilles découpées.
 </t>
@@ -545,17 +559,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organes reproducteurs
-Couleur dominante des fleurs : violacé
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : violacé
 Période de floraison à partir de mars
 Inflorescence : racème de cymes unipares hélicoïdes
 Sexualité : hermaphrodite
 Pollinisation : entomogame, autogame
 Fruit : capsule.
-Dissémination : épizoochore
-Habitat et répartition
-Cette plante annuelle européenne pionnière des haies et des lisières est une plante pyrophyte : elle a besoin du feu pour se régénérer en provoquant des réactions chimiques et thermiques qui favorisent la germination des graines après un incendie.
-L'inventaire national du patrimoine naturel le montre peu répandu et menacé en France ; il est protégé en région Provence-Alpes-Côte d'Azur (Article 1)[1].
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geranium_bohemicum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geranium_bohemicum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante annuelle européenne pionnière des haies et des lisières est une plante pyrophyte : elle a besoin du feu pour se régénérer en provoquant des réactions chimiques et thermiques qui favorisent la germination des graines après un incendie.
+L'inventaire national du patrimoine naturel le montre peu répandu et menacé en France ; il est protégé en région Provence-Alpes-Côte d'Azur (Article 1).
 </t>
         </is>
       </c>
